--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CV-and-models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD990189-BE24-A446-BCCD-AB533C919B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57785D-A51C-F240-A4CB-C54F1AC1CEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="128">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -642,12 +642,19 @@
     <t>华北电力大学2021-2022学年优秀班主任</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>氢燃料电池在地面交通领域应用趋势研究</t>
+  </si>
+  <si>
+    <t>北京国氢中联氢能科技研究院有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -776,6 +783,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -802,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +863,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1743,6 +1760,38 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18">
+      <c r="A13" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13">
+        <v>7.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2022</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1756,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2095B75-DB61-6845-8E62-D94BF38E48B3}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CV-and-models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57785D-A51C-F240-A4CB-C54F1AC1CEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582CE576-91D1-CB4D-AD24-6BD953800E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="129">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -647,6 +647,10 @@
   </si>
   <si>
     <t>北京国氢中联氢能科技研究院有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王歌,张奇, 李彦, 余乐安, 2022. 区块链共享模式下的分布式光伏扩散演化模拟研究. 系统工程学报 （已接收）.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1349,6 +1353,11 @@
     <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CV-and-models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582CE576-91D1-CB4D-AD24-6BD953800E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64F4B0B-3FEC-5249-A493-A49672711919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1400,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1780,7 +1780,7 @@
         <v>127</v>
       </c>
       <c r="C13">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
